--- a/input/data/original/resumen publicaciones.xlsx
+++ b/input/data/original/resumen publicaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\Laboratorio Ciencia Social Abierta\investigacion-lisa\input\data\original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8497A1-A13B-4259-8997-BA392692DD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2665342A-D376-4C32-B9AD-590E830C727B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3EBE1689-F904-4CBA-BEBE-28A65C684671}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
   <si>
     <t>Titulo</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Bailey, Hasselback and Karcher</t>
+  </si>
+  <si>
+    <t>Survey on Scientific Shared Resource Rigor and Reproducibility</t>
+  </si>
+  <si>
+    <t>Knudtson, Carnahan, Hegstad-Davies, Fisher, Hicks, Lopez, Meyn, Mische, Weis-Garcia, White &amp; Sol-Church</t>
   </si>
 </sst>
 </file>
@@ -685,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD5FFF7-7E59-4EB3-BD32-A0BF7027CB0E}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,241 +924,241 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2020</v>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2019</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1">
         <v>2018</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>49</v>
@@ -1160,76 +1166,76 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>2019</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>2015</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>46</v>
@@ -1238,143 +1244,163 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="2">
         <v>2015</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" s="2">
         <v>2015</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34" s="2">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>47</v>
       </c>
     </row>
